--- a/G&.xlsx
+++ b/G&.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hardiksottany/Developer/lmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F320F70-AFCA-124A-BB4E-C6F0C75B596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734ECFA1-A640-394E-9A3B-82C7D7206CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{4078C117-C5CF-A143-A716-0F26E3B2FBA5}"/>
   </bookViews>
@@ -565,24 +565,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -696,6 +678,24 @@
     </xf>
     <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,45 +1052,45 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="23"/>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="27"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="69"/>
       <c r="R1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="28" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="28" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="30"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="72"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1716,991 +1716,991 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="40">
         <v>41976</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <v>7582944</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="35">
         <v>4607</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="35">
         <v>14281.7</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="35">
         <v>894034.42</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="56">
         <v>310738370</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="A12" s="40">
         <v>42531</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="48">
         <v>5591073</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="38">
         <v>20000</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="38">
         <v>52000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="38">
         <v>3551600</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="56">
         <v>910052314</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="40">
         <v>42531</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="48">
         <v>5590848</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="38">
         <v>20000</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="39">
         <v>52000</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="38">
         <v>3551600</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="56">
         <v>910052314</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="40">
         <v>42534</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="48">
         <v>5603163</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="38">
         <v>4471</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="39">
         <v>11624.6</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="38">
         <v>793960.18</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="56">
         <v>910052314</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="40">
         <v>42538</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="48">
         <v>5663533</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="38">
         <v>20000</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="39">
         <v>52035.87</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="38">
         <v>3541041</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="56">
         <v>910052314</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="40">
         <v>42538</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="48">
         <v>5663535</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="38">
         <v>20000</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="39">
         <v>52035.87</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="38">
         <v>3541041</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="56">
         <v>910052314</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="40">
         <v>42538</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="48">
         <v>5663536</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="39">
         <v>20000</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="39">
         <v>52036.12</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="41">
         <v>3541058</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="56">
         <v>910052314</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
+      <c r="A18" s="40">
         <v>42570</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="48">
         <v>5424450</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="50">
         <v>20000</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="35">
         <v>50034.21</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="36">
         <v>3404828</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="40">
         <v>42690</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="48">
         <v>5847683</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="50">
         <v>20000</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="35">
         <v>52036.12</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="36">
         <v>3541058</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
+      <c r="A20" s="40">
         <v>42529</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="48">
         <v>7134382</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="50">
         <v>10000</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="35">
         <v>26518.38</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="35">
         <v>1796620.5</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="35" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="59">
         <f>SUBTOTAL(9,D11:D20)</f>
         <v>159078</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="60">
         <f>SUBTOTAL(9,E11:E20)</f>
         <v>414602.87000000005</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="60">
         <f>SUBTOTAL(9,F11:F20)</f>
         <v>28156841.100000001</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="59"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="40">
         <v>41955</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="48">
         <v>7370336</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="35">
         <v>6888</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="35">
         <v>10814.16</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="35">
         <v>669396.5</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="56">
         <v>310738370</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
+      <c r="A24" s="40">
         <v>42545</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="48">
         <v>5758263</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="38">
         <v>52170</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="39">
         <v>37125.300000000003</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="38">
         <v>2526376.75</v>
       </c>
-      <c r="G24" s="62">
+      <c r="G24" s="56">
         <v>910052314</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+      <c r="A25" s="40">
         <v>42545</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="48">
         <v>5758326</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="38">
         <v>28793</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="39">
         <v>20443.09</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="38">
         <v>1391152.59</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="56">
         <v>910052314</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
+      <c r="A26" s="40">
         <v>42529</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="48">
         <v>5552488</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="35">
         <v>36683</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="35">
         <v>23843.95</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="35">
         <v>1628541.79</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="35" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="60">
         <f>SUBTOTAL(9,D23:D26)</f>
         <v>124534</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="60">
         <f>SUBTOTAL(9,E23:E26)</f>
         <v>92226.5</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="60">
         <f>SUBTOTAL(9,F23:F26)</f>
         <v>6215467.6299999999</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="59"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="53"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+      <c r="A29" s="40">
         <v>42541</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="48">
         <v>5701638</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="39">
         <v>172580</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="38">
         <v>124986.78</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="39">
         <v>8505350.4499999993</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="56">
         <v>910052314</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
+      <c r="A30" s="40">
         <v>42541</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="48">
         <v>5701638</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="36">
         <v>77840</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="35">
         <v>56374.62</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="36">
         <v>3836293.22</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="61">
         <f>SUBTOTAL(9,D29:D30)</f>
         <v>250420</v>
       </c>
-      <c r="E31" s="66">
+      <c r="E31" s="60">
         <f>SUBTOTAL(9,E29:E30)</f>
         <v>181361.4</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="61">
         <f>SUBTOTAL(9,F29:F30)</f>
         <v>12341643.67</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
+      <c r="A33" s="40">
         <v>42024</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="48">
         <v>8051208</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="34">
         <v>7494</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="35">
         <v>35996.97</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="36">
         <v>2242611</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="56">
         <v>310738370</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
+      <c r="A34" s="40">
         <v>42609</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="48">
         <v>6516026</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="39">
         <v>10000</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="38">
         <v>45506.25</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="39">
         <v>3083048.44</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="56">
         <v>910052314</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="40">
         <v>42609</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="48">
         <v>6516376</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="39">
         <v>10000</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>45506.25</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="39">
         <v>3083048.44</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="56">
         <v>910052314</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
+      <c r="A36" s="40">
         <v>42609</v>
       </c>
-      <c r="B36" s="54">
+      <c r="B36" s="48">
         <v>6516377</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="39">
         <v>20400</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="38">
         <v>92832.75</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="39">
         <v>6289418.8099999996</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="56">
         <v>910052314</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
+      <c r="A37" s="40">
         <v>42609</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="48">
         <v>6516950</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="39">
         <v>21000</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="38">
         <v>95563.13</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="39">
         <v>6474401.7199999997</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="56">
         <v>910052314</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="46">
+      <c r="A38" s="40">
         <v>42570</v>
       </c>
-      <c r="B38" s="54">
+      <c r="B38" s="48">
         <v>6040177</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38" s="50">
         <v>26730</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="35">
         <v>218948.77</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="36">
         <v>14932306.199999999</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="40">
         <v>42690</v>
       </c>
-      <c r="B39" s="54">
+      <c r="B39" s="48">
         <v>7476893</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="36">
         <v>1375</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="35">
         <v>10289.48</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="36">
         <v>695569</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="43">
         <v>3360</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="43">
         <v>28224</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="44">
         <v>1941811.2</v>
       </c>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="60" t="s">
+      <c r="H40" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="43">
         <v>1720</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="44">
         <v>14448</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="44">
         <v>975240</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="43">
         <v>6222</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="43">
         <v>47189.99</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="43">
         <v>3190043</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G42" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="60" t="s">
+      <c r="H42" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="43">
         <v>5050</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="43">
         <v>38301.089999999997</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="44">
         <v>2619794.7999999998</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="60" t="s">
+      <c r="H43" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="57" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="68">
+      <c r="D44" s="62">
         <f>SUBTOTAL(9,D33:D43)</f>
         <v>113351</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="62">
         <f>SUBTOTAL(9,E33:E43)</f>
         <v>672806.67999999993</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="63">
         <f>SUBTOTAL(9,F33:F43)</f>
         <v>45527292.609999999</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="60"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="54"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="60"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
+      <c r="A46" s="40">
         <v>42538</v>
       </c>
-      <c r="B46" s="54">
+      <c r="B46" s="48">
         <v>5665920</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="39">
         <v>13950</v>
       </c>
-      <c r="E46" s="44">
+      <c r="E46" s="38">
         <v>2778.16</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="39">
         <v>189053.89</v>
       </c>
-      <c r="G46" s="62">
+      <c r="G46" s="56">
         <v>910052314</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="35" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="58">
         <f>SUBTOTAL(9,D46:D46)</f>
         <v>13950</v>
       </c>
-      <c r="E47" s="70">
+      <c r="E47" s="64">
         <f>SUBTOTAL(9,E46:E46)</f>
         <v>2778.16</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="58">
         <f>SUBTOTAL(9,F46:F46)</f>
         <v>189053.89</v>
       </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="59"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="53"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="59"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="53"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="40">
         <v>42538</v>
       </c>
-      <c r="B49" s="54">
+      <c r="B49" s="48">
         <v>5665920</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="39">
         <v>83200</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="39">
         <v>16569.39</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="39">
         <v>1127547.2</v>
       </c>
-      <c r="G49" s="62">
+      <c r="G49" s="56">
         <v>910052314</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="35" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="64">
+      <c r="D50" s="58">
         <f>SUBTOTAL(9,D49:D49)</f>
         <v>83200</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="58">
         <f>SUBTOTAL(9,E49:E49)</f>
         <v>16569.39</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="58">
         <f>SUBTOTAL(9,F49:F49)</f>
         <v>1127547.2</v>
       </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="59"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="53"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="59"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="53"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="71" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="66">
         <f>SUBTOTAL(9,D11:D49)</f>
         <v>744533</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="66">
         <f>SUBTOTAL(9,E11:E49)</f>
         <v>1380344.9999999998</v>
       </c>
-      <c r="F52" s="72">
+      <c r="F52" s="66">
         <f>SUBTOTAL(9,F11:F49)</f>
         <v>93557846.100000009</v>
       </c>
-      <c r="G52" s="62"/>
-      <c r="H52" s="59"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2725,946 +2725,946 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="32"/>
+    <col min="8" max="8" width="24.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="46">
+      <c r="A2" s="40">
         <v>41976</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="48">
         <v>7582944</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="35">
         <v>4607</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="35">
         <v>14281.7</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="35">
         <v>894034.42</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="56">
         <v>310738370</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="40">
         <v>42531</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="48">
         <v>5591073</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="38">
         <v>20000</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="38">
         <v>52000</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="38">
         <v>3551600</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="56">
         <v>910052314</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="40">
         <v>42531</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="48">
         <v>5590848</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="38">
         <v>20000</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="39">
         <v>52000</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="38">
         <v>3551600</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="56">
         <v>910052314</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="40">
         <v>42534</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="48">
         <v>5603163</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="38">
         <v>4471</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>11624.6</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="38">
         <v>793960.18</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="56">
         <v>910052314</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A6" s="46">
+      <c r="A6" s="40">
         <v>42538</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="48">
         <v>5663533</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="38">
         <v>20000</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="39">
         <v>52035.87</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="38">
         <v>3541041</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="56">
         <v>910052314</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="40">
         <v>42538</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="48">
         <v>5663535</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="38">
         <v>20000</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="39">
         <v>52035.87</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="38">
         <v>3541041</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>910052314</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
+      <c r="A8" s="40">
         <v>42538</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="48">
         <v>5663536</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="39">
         <v>20000</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="39">
         <v>52036.12</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="41">
         <v>3541058</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="56">
         <v>910052314</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="A9" s="40">
         <v>42570</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="48">
         <v>5424450</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="50">
         <v>20000</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="35">
         <v>50034.21</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="36">
         <v>3404828</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="A10" s="40">
         <v>42690</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="48">
         <v>5847683</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="50">
         <v>20000</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="35">
         <v>52036.12</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="36">
         <v>3541058</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="40">
         <v>42529</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <v>7134382</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="50">
         <v>10000</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="35">
         <v>26518.38</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="35">
         <v>1796620.5</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="50">
         <f>SUBTOTAL(9,D2:D11)</f>
         <v>159078</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="35">
         <f>SUBTOTAL(9,E2:E11)</f>
         <v>414602.87000000005</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="35">
         <f>SUBTOTAL(9,F2:F11)</f>
         <v>28156841.100000001</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="59"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="40">
         <v>41955</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="48">
         <v>7370336</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="35">
         <v>6888</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="35">
         <v>10814.16</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="35">
         <v>669396.5</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="56">
         <v>310738370</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="40">
         <v>42545</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="48">
         <v>5758263</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="38">
         <v>52170</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="39">
         <v>37125.300000000003</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="38">
         <v>2526376.75</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="56">
         <v>910052314</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="40">
         <v>42545</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="48">
         <v>5758326</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="38">
         <v>28793</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="39">
         <v>20443.09</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="38">
         <v>1391152.59</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="56">
         <v>910052314</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="40">
         <v>42529</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="48">
         <v>5552488</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="35">
         <v>36683</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="35">
         <v>23843.95</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="35">
         <v>1628541.79</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="35" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="35">
         <f>SUBTOTAL(9,D13:D16)</f>
         <v>124534</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="35">
         <f>SUBTOTAL(9,E13:E16)</f>
         <v>92226.5</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="35">
         <f>SUBTOTAL(9,F13:F16)</f>
         <v>6215467.6299999999</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
+      <c r="A18" s="40">
         <v>42541</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="48">
         <v>5701638</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="39">
         <v>172580</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="38">
         <v>124986.78</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="39">
         <v>8505350.4499999993</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="56">
         <v>910052314</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="40">
         <v>42541</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="48">
         <v>5701638</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="36">
         <v>77840</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="35">
         <v>56374.62</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="36">
         <v>3836293.22</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="36">
         <f>SUBTOTAL(9,D18:D19)</f>
         <v>250420</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="35">
         <f>SUBTOTAL(9,E18:E19)</f>
         <v>181361.4</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="36">
         <f>SUBTOTAL(9,F18:F19)</f>
         <v>12341643.67</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
+      <c r="A21" s="40">
         <v>42024</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="48">
         <v>8051208</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="34">
         <v>7494</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="35">
         <v>35996.97</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="36">
         <v>2242611</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="56">
         <v>310738370</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A22" s="46">
+      <c r="A22" s="40">
         <v>42609</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="48">
         <v>6516026</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="39">
         <v>10000</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="38">
         <v>45506.25</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="39">
         <v>3083048.44</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="56">
         <v>910052314</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="40">
         <v>42609</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="48">
         <v>6516376</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="39">
         <v>10000</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="38">
         <v>45506.25</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="39">
         <v>3083048.44</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="56">
         <v>910052314</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
+      <c r="A24" s="40">
         <v>42609</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="48">
         <v>6516377</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="39">
         <v>20400</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="38">
         <v>92832.75</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="39">
         <v>6289418.8099999996</v>
       </c>
-      <c r="G24" s="62">
+      <c r="G24" s="56">
         <v>910052314</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+      <c r="A25" s="40">
         <v>42609</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="48">
         <v>6516950</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="39">
         <v>21000</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="38">
         <v>95563.13</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="39">
         <v>6474401.7199999997</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="56">
         <v>910052314</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
+      <c r="A26" s="40">
         <v>42570</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="48">
         <v>6040177</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="50">
         <v>26730</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="35">
         <v>218948.77</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="36">
         <v>14932306.199999999</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="40">
         <v>42690</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="48">
         <v>7476893</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="36">
         <v>1375</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="35">
         <v>10289.48</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="36">
         <v>695569</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="43">
         <v>3360</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="43">
         <v>28224</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="44">
         <v>1941811.2</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="43">
         <v>1720</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="44">
         <v>14448</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="44">
         <v>975240</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="43">
         <v>6222</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="43">
         <v>47189.99</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="43">
         <v>3190043</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="H30" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="43">
         <v>5050</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="43">
         <v>38301.089999999997</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="44">
         <v>2619794.7999999998</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="57" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="43">
         <f>SUBTOTAL(9,D21:D31)</f>
         <v>113351</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="43">
         <f>SUBTOTAL(9,E21:E31)</f>
         <v>672806.67999999993</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="44">
         <f>SUBTOTAL(9,F21:F31)</f>
         <v>45527292.609999999</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
+      <c r="A33" s="40">
         <v>42538</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="48">
         <v>5665920</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="39">
         <v>13950</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="38">
         <v>2778.16</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="39">
         <v>189053.89</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="56">
         <v>910052314</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="35" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="39">
         <f>SUBTOTAL(9,D33:D33)</f>
         <v>13950</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="38">
         <f>SUBTOTAL(9,E33:E33)</f>
         <v>2778.16</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="39">
         <f>SUBTOTAL(9,F33:F33)</f>
         <v>189053.89</v>
       </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="59"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="53"/>
     </row>
     <row r="35" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="40">
         <v>42538</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="48">
         <v>5665920</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="39">
         <v>83200</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="39">
         <v>16569.39</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="39">
         <v>1127547.2</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="56">
         <v>910052314</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="35" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="39">
         <f>SUBTOTAL(9,D35:D35)</f>
         <v>83200</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="39">
         <f>SUBTOTAL(9,E35:E35)</f>
         <v>16569.39</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="39">
         <f>SUBTOTAL(9,F35:F35)</f>
         <v>1127547.2</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="59"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="53"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="35" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="39">
         <f>SUBTOTAL(9,D2:D35)</f>
         <v>744533</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="39">
         <f>SUBTOTAL(9,E2:E35)</f>
         <v>1380344.9999999998</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="39">
         <f>SUBTOTAL(9,F2:F35)</f>
         <v>93557846.100000009</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="59"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{BD503B56-BCE8-7243-911A-7058C8CC40A2}">
